--- a/public/portal-bulkUpload.xlsx
+++ b/public/portal-bulkUpload.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Origin</t>
   </si>
@@ -155,6 +155,9 @@
     <t>500, 1500</t>
   </si>
   <si>
+    <t>Harman</t>
+  </si>
+  <si>
     <t>abc</t>
   </si>
   <si>
@@ -179,7 +182,7 @@
     <t>DJSKJJBAK35</t>
   </si>
   <si>
-    <t>0012</t>
+    <t>Altaf</t>
   </si>
   <si>
     <t>SW1A 0AA</t>
@@ -1287,8 +1290,8 @@
   <sheetPr/>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1459,61 +1462,61 @@
         <v>42</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
         <v>45</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AA2" t="s">
         <v>46</v>
       </c>
-      <c r="T2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>47</v>
-      </c>
       <c r="AD2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2">
         <v>25000</v>
       </c>
       <c r="AH2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1">
